--- a/template/NetApp/blank_DataONTAPチェックシート.xlsx
+++ b/template/NetApp/blank_DataONTAPチェックシート.xlsx
@@ -25,17 +25,17 @@
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1549225964" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1549225964" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1549225964" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1549225964"/>
+      <pm:revision xmlns:pm="smNativeData" day="1549225915" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1549225915" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1549225915" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1549225915"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="202">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -611,6 +611,52 @@
   </si>
   <si>
     <t>kcloud</t>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>NTP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リリース</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>その他設定</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -618,10 +664,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="184" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1002,16 +1048,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,6 +1170,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,10 +1200,10 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1549225964" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1549225915" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1549225964" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1549225915" count="3">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1969,15 +2018,15 @@
     <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -2978,7 +3027,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225964" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2991,9 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3008,15 +3055,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3331,7 +3378,7 @@
       </x14:dataValidations>
     </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225964" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3635,7 +3682,7 @@
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225964" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3726,7 +3773,7 @@
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225964" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3737,587 +3784,680 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
-    <col min="7" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="1025" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="54.875" customWidth="1"/>
+    <col min="8" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>101</v>
+      <c r="B4" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>107</v>
+      <c r="B5" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>110</v>
+      <c r="B6" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>113</v>
+      <c r="B7" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>116</v>
+      <c r="B8" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>91</v>
+      <c r="B9" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>121</v>
+      <c r="B10" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>124</v>
+      <c r="B11" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>90</v>
+      <c r="B12" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>92</v>
+      <c r="B13" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>131</v>
+      <c r="B14" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>134</v>
+      <c r="B15" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>136</v>
+      <c r="B16" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>138</v>
+      <c r="B17" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="G17" s="31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>141</v>
+      <c r="B18" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="G18" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>144</v>
+      <c r="B19" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>147</v>
+      <c r="B20" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>150</v>
+      <c r="B21" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>153</v>
+      <c r="B22" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>156</v>
+      <c r="B23" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>158</v>
+      <c r="B24" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>161</v>
+      <c r="B25" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>164</v>
+      <c r="B26" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>167</v>
+      <c r="B27" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>171</v>
+      <c r="B28" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>173</v>
+      <c r="B29" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>175</v>
+      <c r="B30" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="G30" s="31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>178</v>
+      <c r="B31" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>181</v>
+      <c r="B32" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="G32" s="31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>93</v>
+      <c r="B33" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4327,7 +4467,7 @@
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225964" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5297,7 +5437,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225964" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/NetApp/blank_DataONTAPチェックシート.xlsx
+++ b/template/NetApp/blank_DataONTAPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -1505,7 +1505,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3040,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3786,18 +3786,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="54.875" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
@@ -3843,13 +3841,13 @@
         <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3865,14 +3863,14 @@
       <c r="D5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3888,14 +3886,14 @@
       <c r="D6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3909,12 +3907,12 @@
       <c r="D7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3928,12 +3926,12 @@
       <c r="D8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3947,12 +3945,12 @@
       <c r="D9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3966,12 +3964,12 @@
       <c r="D10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="31" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3985,12 +3983,12 @@
       <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="31" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4006,14 +4004,14 @@
       <c r="D12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4029,14 +4027,14 @@
       <c r="D13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4052,14 +4050,14 @@
       <c r="D14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4073,12 +4071,12 @@
       <c r="D15" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4092,12 +4090,12 @@
       <c r="D16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4113,14 +4111,14 @@
       <c r="D17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4136,14 +4134,14 @@
       <c r="D18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4157,12 +4155,12 @@
       <c r="D19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4176,12 +4174,12 @@
       <c r="D20" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4195,12 +4193,12 @@
       <c r="D21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4216,14 +4214,14 @@
       <c r="D22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4239,14 +4237,14 @@
       <c r="D23" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4260,12 +4258,12 @@
       <c r="D24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4279,12 +4277,12 @@
       <c r="D25" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4300,12 +4298,12 @@
       <c r="D26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="32" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4321,14 +4319,14 @@
       <c r="D27" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4342,12 +4340,12 @@
       <c r="D28" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4361,12 +4359,12 @@
       <c r="D29" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4382,14 +4380,14 @@
       <c r="D30" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4405,14 +4403,14 @@
       <c r="D31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4428,14 +4426,14 @@
       <c r="D32" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4451,14 +4449,14 @@
       <c r="D33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
